--- a/old_doc/07.試験項目表.xlsx
+++ b/old_doc/07.試験項目表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AttendanceManagement\old_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3004A9F-C650-43F2-A605-CE621F783F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A33241F-4EC6-43E0-BB55-DF666A676747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{41F28AE0-7881-47A3-8751-60557CFE640E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{41F28AE0-7881-47A3-8751-60557CFE640E}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -30,23 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="471">
   <si>
     <t>ログイン</t>
     <phoneticPr fontId="1"/>
@@ -6693,6 +6682,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6701,12 +6696,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7024,7 +7013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF94117-8DAC-4F6C-9F81-B4499692324C}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:K7"/>
     </sheetView>
   </sheetViews>
@@ -7113,19 +7102,19 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="58.2" x14ac:dyDescent="0.45">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
@@ -7141,32 +7130,32 @@
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="58.2" x14ac:dyDescent="0.45">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
     </row>
     <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A11" s="9"/>
@@ -7270,8 +7259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB29F806-0A3A-48E5-997D-C6E284EFF676}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
@@ -7347,7 +7336,7 @@
         <f>COUNT(出退勤画面!J4:J1048576)</f>
         <v>164</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="39">
         <f>D4/C4</f>
         <v>1</v>
       </c>
@@ -7372,15 +7361,15 @@
       </c>
       <c r="D5" s="31">
         <f>COUNT('管理画面 '!J4:J1048576)</f>
-        <v>223</v>
-      </c>
-      <c r="E5" s="42">
+        <v>243</v>
+      </c>
+      <c r="E5" s="39">
         <f>D5/C5</f>
-        <v>0.91769547325102885</v>
+        <v>1</v>
       </c>
       <c r="F5" s="30">
         <f>MAX('管理画面 '!J4:J1048576)</f>
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="G5" s="29"/>
     </row>
@@ -7571,15 +7560,15 @@
       </c>
       <c r="D14" s="13">
         <f>SUM(D4:D13)</f>
-        <v>387</v>
-      </c>
-      <c r="E14" s="42">
+        <v>407</v>
+      </c>
+      <c r="E14" s="39">
         <f>D14/C14</f>
-        <v>0.9508599508599509</v>
-      </c>
-      <c r="F14" s="43">
+        <v>1</v>
+      </c>
+      <c r="F14" s="40">
         <f>MAX(F4:F13)</f>
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>312</v>
@@ -12020,8 +12009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270EE907-D40A-4644-B726-26BE35416BE4}">
   <dimension ref="A1:J253"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A222" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G247" sqref="G247"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A225" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F245" sqref="F245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -17581,9 +17570,13 @@
       <c r="G221" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="H221" s="14"/>
+      <c r="H221" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="I221" s="14"/>
-      <c r="J221" s="29"/>
+      <c r="J221" s="29">
+        <v>44989</v>
+      </c>
     </row>
     <row r="222" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A222" s="28">
@@ -17602,9 +17595,13 @@
       <c r="G222" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="H222" s="14"/>
+      <c r="H222" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="I222" s="14"/>
-      <c r="J222" s="29"/>
+      <c r="J222" s="29">
+        <v>44989</v>
+      </c>
     </row>
     <row r="223" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A223" s="28">
@@ -17623,9 +17620,13 @@
       <c r="G223" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="H223" s="14"/>
+      <c r="H223" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="I223" s="14"/>
-      <c r="J223" s="29"/>
+      <c r="J223" s="29">
+        <v>44989</v>
+      </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A224" s="28">
@@ -17644,9 +17645,13 @@
       <c r="G224" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="H224" s="14"/>
+      <c r="H224" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="I224" s="14"/>
-      <c r="J224" s="29"/>
+      <c r="J224" s="29">
+        <v>44989</v>
+      </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A225" s="28">
@@ -17665,9 +17670,13 @@
       <c r="G225" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H225" s="14"/>
+      <c r="H225" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="I225" s="14"/>
-      <c r="J225" s="29"/>
+      <c r="J225" s="29">
+        <v>44989</v>
+      </c>
     </row>
     <row r="226" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A226" s="28">
@@ -17686,9 +17695,13 @@
       <c r="G226" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="H226" s="14"/>
+      <c r="H226" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="I226" s="14"/>
-      <c r="J226" s="29"/>
+      <c r="J226" s="29">
+        <v>44989</v>
+      </c>
     </row>
     <row r="227" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A227" s="28">
@@ -17707,9 +17720,13 @@
       <c r="G227" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="H227" s="14"/>
+      <c r="H227" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="I227" s="14"/>
-      <c r="J227" s="29"/>
+      <c r="J227" s="29">
+        <v>44989</v>
+      </c>
     </row>
     <row r="228" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A228" s="28">
@@ -17730,9 +17747,13 @@
       <c r="G228" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="H228" s="14"/>
+      <c r="H228" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="I228" s="14"/>
-      <c r="J228" s="29"/>
+      <c r="J228" s="29">
+        <v>44989</v>
+      </c>
     </row>
     <row r="229" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A229" s="28">
@@ -17753,9 +17774,13 @@
       <c r="G229" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="H229" s="14"/>
+      <c r="H229" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="I229" s="14"/>
-      <c r="J229" s="29"/>
+      <c r="J229" s="29">
+        <v>44989</v>
+      </c>
     </row>
     <row r="230" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A230" s="28">
@@ -17776,9 +17801,13 @@
       <c r="G230" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="H230" s="14"/>
+      <c r="H230" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="I230" s="14"/>
-      <c r="J230" s="29"/>
+      <c r="J230" s="29">
+        <v>44989</v>
+      </c>
     </row>
     <row r="231" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A231" s="28">
@@ -17799,9 +17828,13 @@
       <c r="G231" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="H231" s="14"/>
+      <c r="H231" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="I231" s="14"/>
-      <c r="J231" s="29"/>
+      <c r="J231" s="29">
+        <v>44989</v>
+      </c>
     </row>
     <row r="232" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A232" s="28">
@@ -17822,9 +17855,13 @@
       <c r="G232" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="H232" s="14"/>
+      <c r="H232" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="I232" s="14"/>
-      <c r="J232" s="29"/>
+      <c r="J232" s="29">
+        <v>44989</v>
+      </c>
     </row>
     <row r="233" spans="1:10" ht="54" x14ac:dyDescent="0.45">
       <c r="A233" s="28">
@@ -17845,9 +17882,13 @@
       <c r="G233" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="H233" s="14"/>
+      <c r="H233" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="I233" s="14"/>
-      <c r="J233" s="29"/>
+      <c r="J233" s="29">
+        <v>44989</v>
+      </c>
     </row>
     <row r="234" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A234" s="28">
@@ -17868,9 +17909,13 @@
       <c r="G234" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="H234" s="14"/>
+      <c r="H234" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="I234" s="14"/>
-      <c r="J234" s="29"/>
+      <c r="J234" s="29">
+        <v>44989</v>
+      </c>
     </row>
     <row r="235" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A235" s="28">
@@ -17891,9 +17936,13 @@
       <c r="G235" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="H235" s="14"/>
+      <c r="H235" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="I235" s="14"/>
-      <c r="J235" s="29"/>
+      <c r="J235" s="29">
+        <v>44989</v>
+      </c>
     </row>
     <row r="236" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A236" s="28">
@@ -17914,9 +17963,13 @@
       <c r="G236" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="H236" s="14"/>
+      <c r="H236" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="I236" s="14"/>
-      <c r="J236" s="29"/>
+      <c r="J236" s="29">
+        <v>44989</v>
+      </c>
     </row>
     <row r="237" spans="1:10" ht="54" x14ac:dyDescent="0.45">
       <c r="A237" s="28">
@@ -17937,9 +17990,13 @@
       <c r="G237" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="H237" s="14"/>
+      <c r="H237" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="I237" s="14"/>
-      <c r="J237" s="29"/>
+      <c r="J237" s="29">
+        <v>44989</v>
+      </c>
     </row>
     <row r="238" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A238" s="28">
@@ -17960,9 +18017,13 @@
       <c r="G238" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="H238" s="14"/>
+      <c r="H238" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="I238" s="14"/>
-      <c r="J238" s="29"/>
+      <c r="J238" s="29">
+        <v>44989</v>
+      </c>
     </row>
     <row r="239" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A239" s="28">
@@ -17983,9 +18044,13 @@
       <c r="G239" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="H239" s="14"/>
+      <c r="H239" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="I239" s="14"/>
-      <c r="J239" s="29"/>
+      <c r="J239" s="29">
+        <v>44989</v>
+      </c>
     </row>
     <row r="240" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A240" s="28">
@@ -18006,9 +18071,13 @@
       <c r="G240" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="H240" s="14"/>
+      <c r="H240" s="14" t="s">
+        <v>467</v>
+      </c>
       <c r="I240" s="14"/>
-      <c r="J240" s="29"/>
+      <c r="J240" s="29">
+        <v>44989</v>
+      </c>
     </row>
     <row r="241" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A241" s="28">
